--- a/results/01-2025/beta/inputs-01-2025.xlsx
+++ b/results/01-2025/beta/inputs-01-2025.xlsx
@@ -22589,7 +22589,7 @@
         <v>402.2</v>
       </c>
       <c r="R212" t="n">
-        <v>4.73526697056517</v>
+        <v>4.73961878202226</v>
       </c>
       <c r="S212" t="n">
         <v>159.1</v>
@@ -22690,7 +22690,7 @@
         <v>406.9</v>
       </c>
       <c r="R213" t="n">
-        <v>7.97281572565635</v>
+        <v>7.97769868483218</v>
       </c>
       <c r="S213" t="n">
         <v>162.2</v>
@@ -22791,7 +22791,7 @@
         <v>434.3</v>
       </c>
       <c r="R214" t="n">
-        <v>30.3389728173201</v>
+        <v>30.340947133778</v>
       </c>
       <c r="S214" t="n">
         <v>158.7</v>
@@ -22892,7 +22892,7 @@
         <v>429.4</v>
       </c>
       <c r="R215" t="n">
-        <v>46.1940167002442</v>
+        <v>46.2453234375524</v>
       </c>
       <c r="S215" t="n">
         <v>162.4</v>
@@ -22993,7 +22993,7 @@
         <v>451.9</v>
       </c>
       <c r="R216" t="n">
-        <v>61.9872136581314</v>
+        <v>62.0712654345618</v>
       </c>
       <c r="S216" t="n">
         <v>165.9</v>
@@ -23094,7 +23094,7 @@
         <v>464.8</v>
       </c>
       <c r="R217" t="n">
-        <v>68.2429483606458</v>
+        <v>68.3121900998493</v>
       </c>
       <c r="S217" t="n">
         <v>166.9</v>
@@ -23195,7 +23195,7 @@
         <v>459.9</v>
       </c>
       <c r="R218" t="n">
-        <v>77.9301419713709</v>
+        <v>78.0145380046553</v>
       </c>
       <c r="S218" t="n">
         <v>170.4</v>
@@ -23296,7 +23296,7 @@
         <v>493.4</v>
       </c>
       <c r="R219" t="n">
-        <v>85.479458631542</v>
+        <v>85.4387215838714</v>
       </c>
       <c r="S219" t="n">
         <v>164</v>
@@ -23397,7 +23397,7 @@
         <v>493.1</v>
       </c>
       <c r="R220" t="n">
-        <v>79.8132565117648</v>
+        <v>79.6290028317487</v>
       </c>
       <c r="S220" t="n">
         <v>162.6</v>
@@ -23456,28 +23456,28 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.00629989728491442</v>
+        <v>0.00755758745245294</v>
       </c>
       <c r="E221" t="n">
-        <v>0.00583217133289549</v>
+        <v>0.00775141246481659</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00583217133289549</v>
+        <v>0.00775141246481659</v>
       </c>
       <c r="G221" t="n">
-        <v>0.00583217133289549</v>
+        <v>0.00775141246481659</v>
       </c>
       <c r="H221" t="n">
-        <v>0.00520566933270916</v>
+        <v>0.00619182328493695</v>
       </c>
       <c r="I221" t="n">
-        <v>0.00524986184574083</v>
+        <v>0.00574380039423361</v>
       </c>
       <c r="J221" t="n">
-        <v>29666.5307226025</v>
+        <v>29690.4212684343</v>
       </c>
       <c r="K221" t="n">
-        <v>1885.09320921534</v>
+        <v>1872.39250303085</v>
       </c>
       <c r="L221" t="n">
         <v>467.087025883687</v>
@@ -23486,22 +23486,22 @@
         <v>79.275</v>
       </c>
       <c r="N221" t="n">
-        <v>3170.31093863823</v>
+        <v>3175.98175838004</v>
       </c>
       <c r="O221" t="n">
-        <v>4514.74674774206</v>
+        <v>4506.17006477277</v>
       </c>
       <c r="P221" t="n">
-        <v>2515.35239850116</v>
+        <v>2498.70051302068</v>
       </c>
       <c r="Q221" t="n">
-        <v>503.002738416146</v>
+        <v>509.332755158353</v>
       </c>
       <c r="R221" t="n">
-        <v>71.2739115472825</v>
+        <v>71.1791672183253</v>
       </c>
       <c r="S221" t="n">
-        <v>163.15466849793</v>
+        <v>166.108108108108</v>
       </c>
       <c r="T221" t="n">
         <v>2160.427</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="AF221" t="n">
-        <v>1778.6636945665</v>
+        <v>1790.11769830383</v>
       </c>
       <c r="AG221" t="n">
-        <v>300.884867285343</v>
+        <v>306.054917437066</v>
       </c>
     </row>
     <row r="222">
@@ -23557,28 +23557,28 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.00554795034724531</v>
+        <v>0.0041537131048579</v>
       </c>
       <c r="E222" t="n">
-        <v>0.00590293924064178</v>
+        <v>0.00711035121086856</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00590293924064178</v>
+        <v>0.00711035121086856</v>
       </c>
       <c r="G222" t="n">
-        <v>0.00590293924064178</v>
+        <v>0.00711035121086856</v>
       </c>
       <c r="H222" t="n">
-        <v>0.0051835649338583</v>
+        <v>0.005494147519161</v>
       </c>
       <c r="I222" t="n">
-        <v>0.00530534068053212</v>
+        <v>0.00562014078474316</v>
       </c>
       <c r="J222" t="n">
-        <v>29970.8366330789</v>
+        <v>30006.0426070456</v>
       </c>
       <c r="K222" t="n">
-        <v>1907.3318350055</v>
+        <v>1878.0448866</v>
       </c>
       <c r="L222" t="n">
         <v>450.668796978304</v>
@@ -23587,22 +23587,22 @@
         <v>79.275</v>
       </c>
       <c r="N222" t="n">
-        <v>3198.00323937427</v>
+        <v>3206.09574740905</v>
       </c>
       <c r="O222" t="n">
-        <v>4587.86144551665</v>
+        <v>4663.80185798619</v>
       </c>
       <c r="P222" t="n">
-        <v>2541.38994029515</v>
+        <v>2529.15816810511</v>
       </c>
       <c r="Q222" t="n">
-        <v>513.104349734621</v>
+        <v>526.099889428512</v>
       </c>
       <c r="R222" t="n">
-        <v>74.0562477423516</v>
+        <v>73.9806362924226</v>
       </c>
       <c r="S222" t="n">
-        <v>164.648939314487</v>
+        <v>166.550368550369</v>
       </c>
       <c r="T222" t="n">
         <v>2201.992266473</v>
@@ -23641,10 +23641,10 @@
         <v>0</v>
       </c>
       <c r="AF222" t="n">
-        <v>1790.88379151634</v>
+        <v>1814.40267263843</v>
       </c>
       <c r="AG222" t="n">
-        <v>300.011701447617</v>
+        <v>310.628055986277</v>
       </c>
     </row>
     <row r="223">
@@ -23658,28 +23658,28 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.00538361180457825</v>
+        <v>0.003308518205698</v>
       </c>
       <c r="E223" t="n">
-        <v>0.00582244292745138</v>
+        <v>0.00658622365976935</v>
       </c>
       <c r="F223" t="n">
-        <v>0.00582244292745138</v>
+        <v>0.00658622365976935</v>
       </c>
       <c r="G223" t="n">
-        <v>0.00582244292745138</v>
+        <v>0.00658622365976935</v>
       </c>
       <c r="H223" t="n">
-        <v>0.0051542012116923</v>
+        <v>0.00513127860998308</v>
       </c>
       <c r="I223" t="n">
-        <v>0.0053207417791068</v>
+        <v>0.00571780133544419</v>
       </c>
       <c r="J223" t="n">
-        <v>30282.5448532737</v>
+        <v>30315.1593841447</v>
       </c>
       <c r="K223" t="n">
-        <v>1930.4539814257</v>
+        <v>1883.62592328678</v>
       </c>
       <c r="L223" t="n">
         <v>446.412208570169</v>
@@ -23688,22 +23688,22 @@
         <v>75.203</v>
       </c>
       <c r="N223" t="n">
-        <v>3225.82837610904</v>
+        <v>3232.36567083857</v>
       </c>
       <c r="O223" t="n">
-        <v>4619.57523570444</v>
+        <v>4687.3360681327</v>
       </c>
       <c r="P223" t="n">
-        <v>2567.3565753813</v>
+        <v>2560.6019168812</v>
       </c>
       <c r="Q223" t="n">
-        <v>523.408827843744</v>
+        <v>543.418994465887</v>
       </c>
       <c r="R223" t="n">
-        <v>88.4868021619358</v>
+        <v>88.3944428040623</v>
       </c>
       <c r="S223" t="n">
-        <v>166.13773661157</v>
+        <v>166.481572481572</v>
       </c>
       <c r="T223" t="n">
         <v>2208.692266473</v>
@@ -23742,10 +23742,10 @@
         <v>0</v>
       </c>
       <c r="AF223" t="n">
-        <v>1809.46826968567</v>
+        <v>1845.26007452214</v>
       </c>
       <c r="AG223" t="n">
-        <v>301.946992133931</v>
+        <v>318.103311250161</v>
       </c>
     </row>
     <row r="224">
@@ -23759,28 +23759,28 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.00532530567014544</v>
+        <v>0.00316733733709329</v>
       </c>
       <c r="E224" t="n">
-        <v>0.00572449316892887</v>
+        <v>0.00725659697600345</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00572449316892887</v>
+        <v>0.00725659697600345</v>
       </c>
       <c r="G224" t="n">
-        <v>0.00572449316892887</v>
+        <v>0.00725659697600345</v>
       </c>
       <c r="H224" t="n">
-        <v>0.00513746411938887</v>
+        <v>0.00542443641023826</v>
       </c>
       <c r="I224" t="n">
-        <v>0.00534438472662901</v>
+        <v>0.00573662843673683</v>
       </c>
       <c r="J224" t="n">
-        <v>30588.168983289</v>
+        <v>30617.5714593773</v>
       </c>
       <c r="K224" t="n">
-        <v>1954.158923269</v>
+        <v>1889.08350979391</v>
       </c>
       <c r="L224" t="n">
         <v>449.361288</v>
@@ -23789,22 +23789,22 @@
         <v>75.203</v>
       </c>
       <c r="N224" t="n">
-        <v>3252.64552245344</v>
+        <v>3261.90611278909</v>
       </c>
       <c r="O224" t="n">
-        <v>4651.53608695751</v>
+        <v>4711.08401475736</v>
       </c>
       <c r="P224" t="n">
-        <v>2592.31805072421</v>
+        <v>2587.60624358038</v>
       </c>
       <c r="Q224" t="n">
-        <v>533.920246839563</v>
+        <v>561.308241039732</v>
       </c>
       <c r="R224" t="n">
-        <v>103.161764741351</v>
+        <v>103.083510693309</v>
       </c>
       <c r="S224" t="n">
-        <v>167.08465548067</v>
+        <v>166.624078624079</v>
       </c>
       <c r="T224" t="n">
         <v>2215.392266473</v>
@@ -23843,10 +23843,10 @@
         <v>0</v>
       </c>
       <c r="AF224" t="n">
-        <v>1829.61945582483</v>
+        <v>1878.00622580392</v>
       </c>
       <c r="AG224" t="n">
-        <v>304.51125456311</v>
+        <v>326.352944249715</v>
       </c>
     </row>
     <row r="225">
@@ -23860,28 +23860,28 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0.00533966582888934</v>
+        <v>0.00326388667100996</v>
       </c>
       <c r="E225" t="n">
-        <v>0.00567091947478038</v>
+        <v>0.00751348506319682</v>
       </c>
       <c r="F225" t="n">
-        <v>0.00567091947478038</v>
+        <v>0.00751348506319682</v>
       </c>
       <c r="G225" t="n">
-        <v>0.00567091947478038</v>
+        <v>0.00751348506319682</v>
       </c>
       <c r="H225" t="n">
-        <v>0.00499022561961571</v>
+        <v>0.00545800076174396</v>
       </c>
       <c r="I225" t="n">
-        <v>0.00535891413284784</v>
+        <v>0.00571666765914358</v>
       </c>
       <c r="J225" t="n">
-        <v>30878.1772818436</v>
+        <v>30910.9772186698</v>
       </c>
       <c r="K225" t="n">
-        <v>1968.11289188136</v>
+        <v>1894.77691976033</v>
       </c>
       <c r="L225" t="n">
         <v>448.453726991034</v>
@@ -23890,22 +23890,22 @@
         <v>75.203</v>
       </c>
       <c r="N225" t="n">
-        <v>3279.43968271236</v>
+        <v>3292.54940462156</v>
       </c>
       <c r="O225" t="n">
-        <v>4683.74618802104</v>
+        <v>4735.045843276</v>
       </c>
       <c r="P225" t="n">
-        <v>2616.97043481216</v>
+        <v>2614.20733389807</v>
       </c>
       <c r="Q225" t="n">
-        <v>532.572024808252</v>
+        <v>557.839987860135</v>
       </c>
       <c r="R225" t="n">
-        <v>109.690951603052</v>
+        <v>109.658761987664</v>
       </c>
       <c r="S225" t="n">
-        <v>167.166758272789</v>
+        <v>166.540540540541</v>
       </c>
       <c r="T225" t="n">
         <v>2205.853266473</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="AF225" t="n">
-        <v>1856.47728683357</v>
+        <v>1910.58188659072</v>
       </c>
       <c r="AG225" t="n">
-        <v>308.423398645602</v>
+        <v>333.267075625977</v>
       </c>
     </row>
     <row r="226">
@@ -23961,28 +23961,28 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.00396062435642164</v>
+        <v>0.00484359624699504</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0056830615202379</v>
+        <v>0.00770172679420678</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0056830615202379</v>
+        <v>0.00770172679420678</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0056830615202379</v>
+        <v>0.00770172679420678</v>
       </c>
       <c r="H226" t="n">
-        <v>0.00490394615593148</v>
+        <v>0.0053246047022768</v>
       </c>
       <c r="I226" t="n">
-        <v>0.00533462036210497</v>
+        <v>0.00567994383495618</v>
       </c>
       <c r="J226" t="n">
-        <v>31148.1080828061</v>
+        <v>31214.0897851422</v>
       </c>
       <c r="K226" t="n">
-        <v>1980.71518106142</v>
+        <v>1904.67975232033</v>
       </c>
       <c r="L226" t="n">
         <v>451.587350777436</v>
@@ -23991,22 +23991,22 @@
         <v>75.203</v>
       </c>
       <c r="N226" t="n">
-        <v>3307.35011942372</v>
+        <v>3324.0646831367</v>
       </c>
       <c r="O226" t="n">
-        <v>4766.13947992281</v>
+        <v>5040.33717271295</v>
       </c>
       <c r="P226" t="n">
-        <v>2639.0484963827</v>
+        <v>2638.67223947288</v>
       </c>
       <c r="Q226" t="n">
-        <v>531.227207222935</v>
+        <v>554.393164581683</v>
       </c>
       <c r="R226" t="n">
-        <v>134.692196391126</v>
+        <v>134.709036355557</v>
       </c>
       <c r="S226" t="n">
-        <v>166.433306663197</v>
+        <v>166.742014742015</v>
       </c>
       <c r="T226" t="n">
         <v>2249.62423907488</v>
@@ -24045,10 +24045,10 @@
         <v>0</v>
       </c>
       <c r="AF226" t="n">
-        <v>1879.5358825721</v>
+        <v>1939.49684526215</v>
       </c>
       <c r="AG226" t="n">
-        <v>310.480072541284</v>
+        <v>338.401127789665</v>
       </c>
     </row>
     <row r="227">
@@ -24062,28 +24062,28 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0.00417702316823587</v>
+        <v>0.00515767274045587</v>
       </c>
       <c r="E227" t="n">
-        <v>0.00571317095599766</v>
+        <v>0.00727661871291052</v>
       </c>
       <c r="F227" t="n">
-        <v>0.00571317095599766</v>
+        <v>0.00727661871291052</v>
       </c>
       <c r="G227" t="n">
-        <v>0.00571317095599766</v>
+        <v>0.00727661871291052</v>
       </c>
       <c r="H227" t="n">
-        <v>0.00484384269748661</v>
+        <v>0.00505601510080766</v>
       </c>
       <c r="I227" t="n">
-        <v>0.00530631319568364</v>
+        <v>0.0056310426470525</v>
       </c>
       <c r="J227" t="n">
-        <v>31421.8921408821</v>
+        <v>31516.3017200206</v>
       </c>
       <c r="K227" t="n">
-        <v>1995.67745272291</v>
+        <v>1914.95303263777</v>
       </c>
       <c r="L227" t="n">
         <v>451.948851432976</v>
@@ -24092,22 +24092,22 @@
         <v>75.203</v>
       </c>
       <c r="N227" t="n">
-        <v>3334.87723883736</v>
+        <v>3353.44808520622</v>
       </c>
       <c r="O227" t="n">
-        <v>4799.10254296355</v>
+        <v>5066.12244483538</v>
       </c>
       <c r="P227" t="n">
-        <v>2661.98434906701</v>
+        <v>2664.12111126134</v>
       </c>
       <c r="Q227" t="n">
-        <v>529.885785486919</v>
+        <v>550.967638791707</v>
       </c>
       <c r="R227" t="n">
-        <v>155.154681378039</v>
+        <v>155.206844624839</v>
       </c>
       <c r="S227" t="n">
-        <v>166.312889234756</v>
+        <v>167.071253071253</v>
       </c>
       <c r="T227" t="n">
         <v>2255.59623907488</v>
@@ -24146,10 +24146,10 @@
         <v>0</v>
       </c>
       <c r="AF227" t="n">
-        <v>1902.90715192884</v>
+        <v>1968.82830454834</v>
       </c>
       <c r="AG227" t="n">
-        <v>312.546296366038</v>
+        <v>343.604649893145</v>
       </c>
     </row>
     <row r="228">
@@ -24163,28 +24163,28 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0.00444539201119287</v>
+        <v>0.00527395501319772</v>
       </c>
       <c r="E228" t="n">
-        <v>0.00580957754092171</v>
+        <v>0.00717565811281173</v>
       </c>
       <c r="F228" t="n">
-        <v>0.00580957754092171</v>
+        <v>0.00717565811281173</v>
       </c>
       <c r="G228" t="n">
-        <v>0.00580957754092171</v>
+        <v>0.00717565811281173</v>
       </c>
       <c r="H228" t="n">
-        <v>0.00479383672055</v>
+        <v>0.00504006731362838</v>
       </c>
       <c r="I228" t="n">
-        <v>0.00527407883226472</v>
+        <v>0.00558696597638098</v>
       </c>
       <c r="J228" t="n">
-        <v>31706.9317657902</v>
+        <v>31811.9090232095</v>
       </c>
       <c r="K228" t="n">
-        <v>2009.40022998616</v>
+        <v>1925.96441890162</v>
       </c>
       <c r="L228" t="n">
         <v>456.1445332</v>
@@ -24193,22 +24193,22 @@
         <v>75.203</v>
       </c>
       <c r="N228" t="n">
-        <v>3362.71478827655</v>
+        <v>3383.38513261417</v>
       </c>
       <c r="O228" t="n">
-        <v>4832.32278506902</v>
+        <v>5092.12908886204</v>
       </c>
       <c r="P228" t="n">
-        <v>2685.42943093589</v>
+        <v>2687.35532427355</v>
       </c>
       <c r="Q228" t="n">
-        <v>528.547751025217</v>
+        <v>547.563278895698</v>
       </c>
       <c r="R228" t="n">
-        <v>162.725745305459</v>
+        <v>162.820344255939</v>
       </c>
       <c r="S228" t="n">
-        <v>166.756244312196</v>
+        <v>166.904176904177</v>
       </c>
       <c r="T228" t="n">
         <v>2263.29623907488</v>
@@ -24247,10 +24247,10 @@
         <v>0</v>
       </c>
       <c r="AF228" t="n">
-        <v>1926.59578289377</v>
+        <v>1998.58227801643</v>
       </c>
       <c r="AG228" t="n">
-        <v>314.622114463863</v>
+        <v>348.878581948786</v>
       </c>
     </row>
     <row r="229">
@@ -24264,25 +24264,25 @@
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>0.00504079228887644</v>
+        <v>0.00591965033365316</v>
       </c>
       <c r="E229" t="n">
-        <v>0.00628133760843652</v>
+        <v>0.00766526403461443</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00628133760843652</v>
+        <v>0.00766526403461443</v>
       </c>
       <c r="G229" t="n">
-        <v>0.00628133760843652</v>
+        <v>0.00766526403461443</v>
       </c>
       <c r="H229" t="n">
-        <v>0.00474425523931421</v>
+        <v>0.00506419440096284</v>
       </c>
       <c r="I229" t="n">
-        <v>0.00523379729860385</v>
+        <v>0.00554760795794795</v>
       </c>
       <c r="J229" t="n">
-        <v>31995.013435788</v>
+        <v>32109.0173790552</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -24365,25 +24365,25 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0.00515873503879316</v>
+        <v>0.00555665251195214</v>
       </c>
       <c r="E230" t="n">
-        <v>0.00630531064768802</v>
+        <v>0.0075496406264195</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00630531064768802</v>
+        <v>0.0075496406264195</v>
       </c>
       <c r="G230" t="n">
-        <v>0.00630531064768802</v>
+        <v>0.0075496406264195</v>
       </c>
       <c r="H230" t="n">
-        <v>0.00473037874429894</v>
+        <v>0.00503156049580422</v>
       </c>
       <c r="I230" t="n">
-        <v>0.00522327514825061</v>
+        <v>0.00550459474437348</v>
       </c>
       <c r="J230" t="n">
-        <v>32278.9376441632</v>
+        <v>32413.7310683614</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -24466,25 +24466,25 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>0.00511809259973983</v>
+        <v>0.00549143048802314</v>
       </c>
       <c r="E231" t="n">
-        <v>0.00636942692478693</v>
+        <v>0.00749889729915809</v>
       </c>
       <c r="F231" t="n">
-        <v>0.00636942692478693</v>
+        <v>0.00749889729915809</v>
       </c>
       <c r="G231" t="n">
-        <v>0.00636942692478693</v>
+        <v>0.00749889729915809</v>
       </c>
       <c r="H231" t="n">
-        <v>0.00473052086148029</v>
+        <v>0.00500771630798469</v>
       </c>
       <c r="I231" t="n">
-        <v>0.00515037171705424</v>
+        <v>0.00545389484594594</v>
       </c>
       <c r="J231" t="n">
-        <v>32560.2254134606</v>
+        <v>32710.3390733215</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>0.00518873101404216</v>
+        <v>0.00564509486285392</v>
       </c>
       <c r="E232" t="n">
-        <v>0.00641001309176392</v>
+        <v>0.00741574111840104</v>
       </c>
       <c r="F232" t="n">
-        <v>0.00641001309176392</v>
+        <v>0.00741574111840104</v>
       </c>
       <c r="G232" t="n">
-        <v>0.00641001309176392</v>
+        <v>0.00741574111840104</v>
       </c>
       <c r="H232" t="n">
-        <v>0.00472642424019742</v>
+        <v>0.00498448069628665</v>
       </c>
       <c r="I232" t="n">
-        <v>0.00510328671531268</v>
+        <v>0.00542022049047874</v>
       </c>
       <c r="J232" t="n">
-        <v>32844.8594323568</v>
+        <v>33010.5496046576</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -24668,25 +24668,25 @@
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0055287138727893</v>
+        <v>0.00576177286425783</v>
       </c>
       <c r="E233" t="n">
-        <v>0.0064507136259504</v>
+        <v>0.00736905709434144</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0064507136259504</v>
+        <v>0.00736905709434144</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0064507136259504</v>
+        <v>0.00736905709434144</v>
       </c>
       <c r="H233" t="n">
-        <v>0.0047374828288711</v>
+        <v>0.00497856380828576</v>
       </c>
       <c r="I233" t="n">
-        <v>0.00506502170135303</v>
+        <v>0.00537879404345354</v>
       </c>
       <c r="J233" t="n">
-        <v>33133.2453068636</v>
+        <v>33321.4676449447</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -24769,25 +24769,25 @@
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0053958958468916</v>
+        <v>0.00555315489094732</v>
       </c>
       <c r="E234" t="n">
-        <v>0.0065315402568018</v>
+        <v>0.00734903185670377</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0065315402568018</v>
+        <v>0.00734903185670377</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0065315402568018</v>
+        <v>0.00734903185670377</v>
       </c>
       <c r="H234" t="n">
-        <v>0.004760735950051</v>
+        <v>0.00495839739670845</v>
       </c>
       <c r="I234" t="n">
-        <v>0.00501081648038282</v>
+        <v>0.00534192357811758</v>
       </c>
       <c r="J234" t="n">
-        <v>33425.991445999</v>
+        <v>33634.9875098367</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -24870,25 +24870,25 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.005547011459617</v>
+        <v>0.00562910815455719</v>
       </c>
       <c r="E235" t="n">
-        <v>0.00666145596157186</v>
+        <v>0.00729888751932806</v>
       </c>
       <c r="F235" t="n">
-        <v>0.00666145596157186</v>
+        <v>0.00729888751932806</v>
       </c>
       <c r="G235" t="n">
-        <v>0.00666145596157186</v>
+        <v>0.00729888751932806</v>
       </c>
       <c r="H235" t="n">
-        <v>0.00479021974507288</v>
+        <v>0.00495776481832011</v>
       </c>
       <c r="I235" t="n">
-        <v>0.00502660062373872</v>
+        <v>0.00532158987529296</v>
       </c>
       <c r="J235" t="n">
-        <v>33725.7342888408</v>
+        <v>33940.9020412682</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -24971,25 +24971,25 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.00549985398617747</v>
+        <v>0.00552047429614766</v>
       </c>
       <c r="E236" t="n">
-        <v>0.00674235738498696</v>
+        <v>0.00736702360410346</v>
       </c>
       <c r="F236" t="n">
-        <v>0.00674235738498696</v>
+        <v>0.00736702360410346</v>
       </c>
       <c r="G236" t="n">
-        <v>0.00674235738498696</v>
+        <v>0.00736702360410346</v>
       </c>
       <c r="H236" t="n">
-        <v>0.004806028646549</v>
+        <v>0.00494559667239791</v>
       </c>
       <c r="I236" t="n">
-        <v>0.00501362928348925</v>
+        <v>0.00528941636235492</v>
       </c>
       <c r="J236" t="n">
-        <v>34031.966827874</v>
+        <v>34255.6227482856</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>0.00551817609758465</v>
+        <v>0.00546471830235684</v>
       </c>
       <c r="E237" t="n">
-        <v>0.00683764486104899</v>
+        <v>0.00733025868686998</v>
       </c>
       <c r="F237" t="n">
-        <v>0.00683764486104899</v>
+        <v>0.00733025868686998</v>
       </c>
       <c r="G237" t="n">
-        <v>0.00683764486104899</v>
+        <v>0.00733025868686998</v>
       </c>
       <c r="H237" t="n">
-        <v>0.00481903473851841</v>
+        <v>0.00492973076560066</v>
       </c>
       <c r="I237" t="n">
-        <v>0.00500072649779626</v>
+        <v>0.00524963654830413</v>
       </c>
       <c r="J237" t="n">
-        <v>34344.5876615957</v>
+        <v>34577.6485782322</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -25173,25 +25173,25 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>0.00547201687236676</v>
+        <v>0.00545572521603299</v>
       </c>
       <c r="E238" t="n">
-        <v>0.00688738078154305</v>
+        <v>0.00726481083950925</v>
       </c>
       <c r="F238" t="n">
-        <v>0.00688738078154305</v>
+        <v>0.00726481083950925</v>
       </c>
       <c r="G238" t="n">
-        <v>0.00688738078154305</v>
+        <v>0.00726481083950925</v>
       </c>
       <c r="H238" t="n">
-        <v>0.00483640202891866</v>
+        <v>0.00491904257539555</v>
       </c>
       <c r="I238" t="n">
-        <v>0.00497584366453419</v>
+        <v>0.00521033508596069</v>
       </c>
       <c r="J238" t="n">
-        <v>34662.6841764789</v>
+        <v>34905.1782679199</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -25274,25 +25274,25 @@
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>0.00532843972065278</v>
+        <v>0.0053399730506325</v>
       </c>
       <c r="E239" t="n">
-        <v>0.00688831459364736</v>
+        <v>0.00731110634070276</v>
       </c>
       <c r="F239" t="n">
-        <v>0.00688831459364736</v>
+        <v>0.00731110634070276</v>
       </c>
       <c r="G239" t="n">
-        <v>0.00688831459364736</v>
+        <v>0.00731110634070276</v>
       </c>
       <c r="H239" t="n">
-        <v>0.00484025736739846</v>
+        <v>0.00491298373716265</v>
       </c>
       <c r="I239" t="n">
-        <v>0.00496719175837779</v>
+        <v>0.00516756143130825</v>
       </c>
       <c r="J239" t="n">
-        <v>34986.3577740266</v>
+        <v>35235.8101330981</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -25375,25 +25375,25 @@
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.00539044209335926</v>
+        <v>0.00535781365384902</v>
       </c>
       <c r="E240" t="n">
-        <v>0.00695124959344939</v>
+        <v>0.00725032501438649</v>
       </c>
       <c r="F240" t="n">
-        <v>0.00695124959344939</v>
+        <v>0.00725032501438649</v>
       </c>
       <c r="G240" t="n">
-        <v>0.00695124959344939</v>
+        <v>0.00725032501438649</v>
       </c>
       <c r="H240" t="n">
-        <v>0.00484361940998301</v>
+        <v>0.00490271391174146</v>
       </c>
       <c r="I240" t="n">
-        <v>0.00492673519295383</v>
+        <v>0.00510570215168871</v>
       </c>
       <c r="J240" t="n">
-        <v>35314.7972422149</v>
+        <v>35568.3433316414</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -25476,25 +25476,25 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0053714494404371</v>
+        <v>0.00526017589902583</v>
       </c>
       <c r="E241" t="n">
-        <v>0.00698929263417969</v>
+        <v>0.00725603217193127</v>
       </c>
       <c r="F241" t="n">
-        <v>0.00698929263417969</v>
+        <v>0.00725603217193127</v>
       </c>
       <c r="G241" t="n">
-        <v>0.00698929263417969</v>
+        <v>0.00725603217193127</v>
       </c>
       <c r="H241" t="n">
-        <v>0.00485075146532865</v>
+        <v>0.00490272315253559</v>
       </c>
       <c r="I241" t="n">
-        <v>0.00488279704341488</v>
+        <v>0.00504465278509314</v>
       </c>
       <c r="J241" t="n">
-        <v>35647.0899675169</v>
+        <v>35903.3782846125</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -25577,25 +25577,25 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0.00516706709151271</v>
+        <v>0.0052490028506571</v>
       </c>
       <c r="E242" t="n">
-        <v>0.00701085477153973</v>
+        <v>0.00724906999799702</v>
       </c>
       <c r="F242" t="n">
-        <v>0.00701085477153973</v>
+        <v>0.00724906999799702</v>
       </c>
       <c r="G242" t="n">
-        <v>0.00701085477153973</v>
+        <v>0.00724906999799702</v>
       </c>
       <c r="H242" t="n">
-        <v>0.00485153149474238</v>
+        <v>0.00489374443337853</v>
       </c>
       <c r="I242" t="n">
-        <v>0.00482756991313527</v>
+        <v>0.00499215850685553</v>
       </c>
       <c r="J242" t="n">
-        <v>35982.4247379086</v>
+        <v>36245.1179394501</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0052944419865304</v>
+        <v>0.00520012641279388</v>
       </c>
       <c r="E243" t="n">
-        <v>0.00705708111985137</v>
+        <v>0.00724222162343668</v>
       </c>
       <c r="F243" t="n">
-        <v>0.00705708111985137</v>
+        <v>0.00724222162343668</v>
       </c>
       <c r="G243" t="n">
-        <v>0.00705708111985137</v>
+        <v>0.00724222162343668</v>
       </c>
       <c r="H243" t="n">
-        <v>0.0048632081837976</v>
+        <v>0.00489207668489677</v>
       </c>
       <c r="I243" t="n">
-        <v>0.0047847827449996</v>
+        <v>0.00493645950017374</v>
       </c>
       <c r="J243" t="n">
-        <v>36321.308560905</v>
+        <v>36593.4622259771</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -25779,25 +25779,25 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0.00526173532683871</v>
+        <v>0.00519720817635427</v>
       </c>
       <c r="E244" t="n">
-        <v>0.00703501920168259</v>
+        <v>0.00724723172499742</v>
       </c>
       <c r="F244" t="n">
-        <v>0.00703501920168259</v>
+        <v>0.00724723172499742</v>
       </c>
       <c r="G244" t="n">
-        <v>0.00703501920168259</v>
+        <v>0.00724723172499742</v>
       </c>
       <c r="H244" t="n">
-        <v>0.0048529979157681</v>
+        <v>0.00488114885482771</v>
       </c>
       <c r="I244" t="n">
-        <v>0.00475029738109622</v>
+        <v>0.00488530487992378</v>
       </c>
       <c r="J244" t="n">
-        <v>36663.842838009</v>
+        <v>36935.2018808147</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -25880,25 +25880,25 @@
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0.00527563961968203</v>
+        <v>0.00515527272331484</v>
       </c>
       <c r="E245" t="n">
-        <v>0.00706444317107557</v>
+        <v>0.00721303714945698</v>
       </c>
       <c r="F245" t="n">
-        <v>0.00706444317107557</v>
+        <v>0.00721303714945698</v>
       </c>
       <c r="G245" t="n">
-        <v>0.00706444317107557</v>
+        <v>0.00721303714945698</v>
       </c>
       <c r="H245" t="n">
-        <v>0.00486232207935799</v>
+        <v>0.00488622167563357</v>
       </c>
       <c r="I245" t="n">
-        <v>0.00472007545910125</v>
+        <v>0.00484625476688616</v>
       </c>
       <c r="J245" t="n">
-        <v>37009.9261677178</v>
+        <v>37284.64693929</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -25981,25 +25981,25 @@
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>0.00530215486890606</v>
+        <v>0.00519993436887822</v>
       </c>
       <c r="E246" t="n">
-        <v>0.00705152599487957</v>
+        <v>0.00717617344311416</v>
       </c>
       <c r="F246" t="n">
-        <v>0.00705152599487957</v>
+        <v>0.00717617344311416</v>
       </c>
       <c r="G246" t="n">
-        <v>0.00705152599487957</v>
+        <v>0.00717617344311416</v>
       </c>
       <c r="H246" t="n">
-        <v>0.00485777293438971</v>
+        <v>0.00487961233446832</v>
       </c>
       <c r="I246" t="n">
-        <v>0.00468244739007639</v>
+        <v>0.0048076557063792</v>
       </c>
       <c r="J246" t="n">
-        <v>37359.1529440193</v>
+        <v>37637.8946644955</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -26082,25 +26082,25 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>0.00529234893313224</v>
+        <v>0.00511980448877059</v>
       </c>
       <c r="E247" t="n">
-        <v>0.00711732623587236</v>
+        <v>0.00719272321220554</v>
       </c>
       <c r="F247" t="n">
-        <v>0.00711732623587236</v>
+        <v>0.00719272321220554</v>
       </c>
       <c r="G247" t="n">
-        <v>0.00711732623587236</v>
+        <v>0.00719272321220554</v>
       </c>
       <c r="H247" t="n">
-        <v>0.00486115755082905</v>
+        <v>0.00487260928760191</v>
       </c>
       <c r="I247" t="n">
-        <v>0.00465677886260774</v>
+        <v>0.00478086441968562</v>
       </c>
       <c r="J247" t="n">
-        <v>37711.6245684165</v>
+        <v>37995.2452669626</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -26183,25 +26183,25 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0052562450320528</v>
+        <v>0.00512638892404671</v>
       </c>
       <c r="E248" t="n">
-        <v>0.00708977135022493</v>
+        <v>0.00714290105313653</v>
       </c>
       <c r="F248" t="n">
-        <v>0.00708977135022493</v>
+        <v>0.00714290105313653</v>
       </c>
       <c r="G248" t="n">
-        <v>0.00708977135022493</v>
+        <v>0.00714290105313653</v>
       </c>
       <c r="H248" t="n">
-        <v>0.00486397246548265</v>
+        <v>0.0048736050393241</v>
       </c>
       <c r="I248" t="n">
-        <v>0.00462371106398929</v>
+        <v>0.00473926501804089</v>
       </c>
       <c r="J248" t="n">
-        <v>38067.5438439154</v>
+        <v>38356.7988168684</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -26284,25 +26284,25 @@
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>0.00522846614789252</v>
+        <v>0.00523166916028028</v>
       </c>
       <c r="E249" t="n">
-        <v>0.0071360334951307</v>
+        <v>0.00722352124469983</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0071360334951307</v>
+        <v>0.00722352124469983</v>
       </c>
       <c r="G249" t="n">
-        <v>0.0071360334951307</v>
+        <v>0.00722352124469983</v>
       </c>
       <c r="H249" t="n">
-        <v>0.00485809684592908</v>
+        <v>0.0048733942590069</v>
       </c>
       <c r="I249" t="n">
-        <v>0.00459481083552404</v>
+        <v>0.00471315781573667</v>
       </c>
       <c r="J249" t="n">
-        <v>38425.896755486</v>
+        <v>38722.5553142129</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -26385,25 +26385,25 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>0.00493901013144238</v>
+        <v>0.00504280624051057</v>
       </c>
       <c r="E250" t="n">
-        <v>0.00716903453216777</v>
+        <v>0.00721257882538962</v>
       </c>
       <c r="F250" t="n">
-        <v>0.00716903453216777</v>
+        <v>0.00721257882538962</v>
       </c>
       <c r="G250" t="n">
-        <v>0.00716903453216777</v>
+        <v>0.00721257882538962</v>
       </c>
       <c r="H250" t="n">
-        <v>0.00486627672853213</v>
+        <v>0.00487360388233915</v>
       </c>
       <c r="I250" t="n">
-        <v>0.00456241751240172</v>
+        <v>0.00467984343253258</v>
       </c>
       <c r="J250" t="n">
-        <v>38786.6833031285</v>
+        <v>39091.9143379335</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -26486,25 +26486,25 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0050454408249363</v>
+        <v>0.0051181076140705</v>
       </c>
       <c r="E251" t="n">
-        <v>0.00718936727518638</v>
+        <v>0.00722622564474396</v>
       </c>
       <c r="F251" t="n">
-        <v>0.00718936727518638</v>
+        <v>0.00722622564474396</v>
       </c>
       <c r="G251" t="n">
-        <v>0.00718936727518638</v>
+        <v>0.00722622564474396</v>
       </c>
       <c r="H251" t="n">
-        <v>0.00486546004897104</v>
+        <v>0.00486673920069358</v>
       </c>
       <c r="I251" t="n">
-        <v>0.00454169639722291</v>
+        <v>0.0046431744591946</v>
       </c>
       <c r="J251" t="n">
-        <v>39150.5118958607</v>
+        <v>39464.5756774987</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -26587,25 +26587,25 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>0.00508921192760492</v>
+        <v>0.00518278276978057</v>
       </c>
       <c r="E252" t="n">
-        <v>0.00718313707806573</v>
+        <v>0.00725450994146137</v>
       </c>
       <c r="F252" t="n">
-        <v>0.00718313707806573</v>
+        <v>0.00725450994146137</v>
       </c>
       <c r="G252" t="n">
-        <v>0.00718313707806573</v>
+        <v>0.00725450994146137</v>
       </c>
       <c r="H252" t="n">
-        <v>0.00486341439779814</v>
+        <v>0.00486752205694074</v>
       </c>
       <c r="I252" t="n">
-        <v>0.00450988792928486</v>
+        <v>0.00460321336856051</v>
       </c>
       <c r="J252" t="n">
-        <v>39517.5853366886</v>
+        <v>39840.9396136171</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -26688,25 +26688,25 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>0.00528501550993887</v>
+        <v>0.00539166562955917</v>
       </c>
       <c r="E253" t="n">
-        <v>0.00717568925283363</v>
+        <v>0.00722692326505703</v>
       </c>
       <c r="F253" t="n">
-        <v>0.00717568925283363</v>
+        <v>0.00722692326505703</v>
       </c>
       <c r="G253" t="n">
-        <v>0.00717568925283363</v>
+        <v>0.00722692326505703</v>
       </c>
       <c r="H253" t="n">
-        <v>0.00486299660338019</v>
+        <v>0.00486556313567044</v>
       </c>
       <c r="I253" t="n">
-        <v>0.00448215742174929</v>
+        <v>0.00457107075767049</v>
       </c>
       <c r="J253" t="n">
-        <v>39887.4980196003</v>
+        <v>40220.7059357573</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -26789,25 +26789,25 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>0.00530615579081561</v>
+        <v>0.00530652954005939</v>
       </c>
       <c r="E254" t="n">
-        <v>0.00723850947089333</v>
+        <v>0.00725439387924487</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00723850947089333</v>
+        <v>0.00725439387924487</v>
       </c>
       <c r="G254" t="n">
-        <v>0.00723850947089333</v>
+        <v>0.00725439387924487</v>
       </c>
       <c r="H254" t="n">
-        <v>0.00486472626256185</v>
+        <v>0.00486716069071869</v>
       </c>
       <c r="I254" t="n">
-        <v>0.00445843265792623</v>
+        <v>0.00449893851450689</v>
       </c>
       <c r="J254" t="n">
-        <v>40260.1485430927</v>
+        <v>40601.4729596686</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -26890,25 +26890,25 @@
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0.00526366638494391</v>
+        <v>0.00538040494514247</v>
       </c>
       <c r="E255" t="n">
-        <v>0.00720514060374988</v>
+        <v>0.00724165274775235</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00720514060374988</v>
+        <v>0.00724165274775235</v>
       </c>
       <c r="G255" t="n">
-        <v>0.00720514060374988</v>
+        <v>0.00724165274775235</v>
       </c>
       <c r="H255" t="n">
-        <v>0.00486977895366336</v>
+        <v>0.00486465266577252</v>
       </c>
       <c r="I255" t="n">
-        <v>0.00443122698635778</v>
+        <v>0.00453719183232471</v>
       </c>
       <c r="J255" t="n">
-        <v>40635.7397101719</v>
+        <v>40987.4436327897</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -26991,25 +26991,25 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>0.00533608914008776</v>
+        <v>0.00534256640875586</v>
       </c>
       <c r="E256" t="n">
-        <v>0.00725110506577331</v>
+        <v>0.00726867958875954</v>
       </c>
       <c r="F256" t="n">
-        <v>0.00725110506577331</v>
+        <v>0.00726867958875954</v>
       </c>
       <c r="G256" t="n">
-        <v>0.00725110506577331</v>
+        <v>0.00726867958875954</v>
       </c>
       <c r="H256" t="n">
-        <v>0.00486179575586099</v>
+        <v>0.00486100173102955</v>
       </c>
       <c r="I256" t="n">
-        <v>0.00441167784045593</v>
+        <v>0.00452033241158278</v>
       </c>
       <c r="J256" t="n">
-        <v>41014.4743238438</v>
+        <v>41376.21627087</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -27092,25 +27092,25 @@
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0.00527908676509004</v>
+        <v>0.0050423403233939</v>
       </c>
       <c r="E257" t="n">
-        <v>0.00729628986635267</v>
+        <v>0.007255555263872</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00729628986635267</v>
+        <v>0.007255555263872</v>
       </c>
       <c r="G257" t="n">
-        <v>0.00729628986635267</v>
+        <v>0.007255555263872</v>
       </c>
       <c r="H257" t="n">
-        <v>0.00486832168670137</v>
+        <v>0.00485769973774919</v>
       </c>
       <c r="I257" t="n">
-        <v>0.00439230042599803</v>
+        <v>0.00449275624446099</v>
       </c>
       <c r="J257" t="n">
-        <v>41396.4537856114</v>
+        <v>41767.2905230239</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -27193,25 +27193,25 @@
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>0.00528755943207071</v>
+        <v>0.00516270577993327</v>
       </c>
       <c r="E258" t="n">
-        <v>0.00732436171924289</v>
+        <v>0.00724227125776</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00732436171924289</v>
+        <v>0.00724227125776</v>
       </c>
       <c r="G258" t="n">
-        <v>0.00732436171924289</v>
+        <v>0.00724227125776</v>
       </c>
       <c r="H258" t="n">
-        <v>0.00486529484724985</v>
+        <v>0.00486263153516409</v>
       </c>
       <c r="I258" t="n">
-        <v>0.00437675198161469</v>
+        <v>0.00446545931210318</v>
       </c>
       <c r="J258" t="n">
-        <v>41781.9822999838</v>
+        <v>42160.7664594284</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -27294,25 +27294,25 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0.00533846296484497</v>
+        <v>0.00508791244068618</v>
       </c>
       <c r="E259" t="n">
-        <v>0.00736773064019669</v>
+        <v>0.00724540415029917</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00736773064019669</v>
+        <v>0.00724540415029917</v>
       </c>
       <c r="G259" t="n">
-        <v>0.00736773064019669</v>
+        <v>0.00724540415029917</v>
       </c>
       <c r="H259" t="n">
-        <v>0.00486656389504803</v>
+        <v>0.0048601990811532</v>
       </c>
       <c r="I259" t="n">
-        <v>0.00435767949923127</v>
+        <v>0.00443843729721394</v>
       </c>
       <c r="J259" t="n">
-        <v>42170.8570639548</v>
+        <v>42556.8442204379</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -27395,25 +27395,25 @@
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0.00530320809440532</v>
+        <v>0.00503298392522078</v>
       </c>
       <c r="E260" t="n">
-        <v>0.00741037964071811</v>
+        <v>0.00732858329495434</v>
       </c>
       <c r="F260" t="n">
-        <v>0.00741037964071811</v>
+        <v>0.00732858329495434</v>
       </c>
       <c r="G260" t="n">
-        <v>0.00741037964071811</v>
+        <v>0.00732858329495434</v>
       </c>
       <c r="H260" t="n">
-        <v>0.00486575776518472</v>
+        <v>0.00485855642399113</v>
       </c>
       <c r="I260" t="n">
-        <v>0.00433514478295249</v>
+        <v>0.00440811664554808</v>
       </c>
       <c r="J260" t="n">
-        <v>42563.2808805305</v>
+        <v>42955.6238762294</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>

--- a/results/01-2025/beta/inputs-01-2025.xlsx
+++ b/results/01-2025/beta/inputs-01-2025.xlsx
@@ -35596,7 +35596,7 @@
         <v>163.759599441357</v>
       </c>
       <c r="U222" t="n">
-        <v>2216.251646875</v>
+        <v>2217.001646875</v>
       </c>
       <c r="V222" t="n">
         <v>228.029047409692</v>
@@ -35650,7 +35650,7 @@
         <v>-65.2294783030734</v>
       </c>
       <c r="AM222" t="n">
-        <v>1951.95322054688</v>
+        <v>1952.12197054688</v>
       </c>
       <c r="AN222" t="n">
         <v>197.916535667181</v>
@@ -35751,7 +35751,7 @@
         <v>163.691956140612</v>
       </c>
       <c r="U223" t="n">
-        <v>2222.951646875</v>
+        <v>2223.701646875</v>
       </c>
       <c r="V223" t="n">
         <v>231.362463474923</v>
@@ -35805,7 +35805,7 @@
         <v>-65.4325435077605</v>
       </c>
       <c r="AM223" t="n">
-        <v>1971.65256609375</v>
+        <v>1971.99006609375</v>
       </c>
       <c r="AN223" t="n">
         <v>202.228089949038</v>
@@ -35906,7 +35906,7 @@
         <v>163.832074406442</v>
       </c>
       <c r="U224" t="n">
-        <v>2229.651646875</v>
+        <v>2230.401646875</v>
       </c>
       <c r="V224" t="n">
         <v>234.744608694576</v>
@@ -35960,7 +35960,7 @@
         <v>-65.5902793213086</v>
       </c>
       <c r="AM224" t="n">
-        <v>1989.07941164063</v>
+        <v>1989.58566164063</v>
       </c>
       <c r="AN224" t="n">
         <v>205.185626905318</v>
@@ -36061,7 +36061,7 @@
         <v>163.749936112679</v>
       </c>
       <c r="U225" t="n">
-        <v>2220.112646875</v>
+        <v>2220.862646875</v>
       </c>
       <c r="V225" t="n">
         <v>238.176195410118</v>
@@ -36115,7 +36115,7 @@
         <v>-65.6419438583979</v>
       </c>
       <c r="AM225" t="n">
-        <v>2000.0177071875</v>
+        <v>2000.6927071875</v>
       </c>
       <c r="AN225" t="n">
         <v>209.770270872594</v>
@@ -36216,7 +36216,7 @@
         <v>163.948034350578</v>
       </c>
       <c r="U226" t="n">
-        <v>2264.21819616788</v>
+        <v>2267.96985716788</v>
       </c>
       <c r="V226" t="n">
         <v>241.657946376297</v>
@@ -36270,7 +36270,7 @@
         <v>-65.8168783367505</v>
       </c>
       <c r="AM226" t="n">
-        <v>2010.8101807784</v>
+        <v>2012.1605545034</v>
       </c>
       <c r="AN226" t="n">
         <v>212.83677314008</v>
@@ -36371,7 +36371,7 @@
         <v>164.27175586129</v>
       </c>
       <c r="U227" t="n">
-        <v>2270.19019616788</v>
+        <v>2273.94185716788</v>
       </c>
       <c r="V227" t="n">
         <v>245.190594913367</v>
@@ -36425,7 +36425,7 @@
         <v>-65.8792701987935</v>
       </c>
       <c r="AM227" t="n">
-        <v>2021.43885436929</v>
+        <v>2023.46460181929</v>
       </c>
       <c r="AN227" t="n">
         <v>215.94810271373</v>
@@ -36526,7 +36526,7 @@
         <v>164.107479273765</v>
       </c>
       <c r="U228" t="n">
-        <v>2277.89019616788</v>
+        <v>2281.64185716788</v>
       </c>
       <c r="V228" t="n">
         <v>248.77488506154</v>
@@ -36580,7 +36580,7 @@
         <v>-65.819519507919</v>
       </c>
       <c r="AM228" t="n">
-        <v>2032.29252796019</v>
+        <v>2034.99364913519</v>
       </c>
       <c r="AN228" t="n">
         <v>219.104914896297</v>
@@ -36675,13 +36675,13 @@
         <v>544.179954112255</v>
       </c>
       <c r="S229" t="n">
-        <v>0</v>
+        <v>160.445027356869</v>
       </c>
       <c r="T229" t="n">
         <v>164.305577511663</v>
       </c>
       <c r="U229" t="n">
-        <v>2285.59019616788</v>
+        <v>2289.34185716788</v>
       </c>
       <c r="V229" t="n">
         <v>252.41157173769</v>
@@ -36735,7 +36735,7 @@
         <v>-65.7330387583077</v>
       </c>
       <c r="AM229" t="n">
-        <v>2047.02497655109</v>
+        <v>2050.40147145109</v>
       </c>
       <c r="AN229" t="n">
         <v>222.307874570001</v>
@@ -36890,7 +36890,7 @@
         <v>-60.0530387583078</v>
       </c>
       <c r="AM230" t="n">
-        <v>1537.57588241332</v>
+        <v>1540.10825358832</v>
       </c>
       <c r="AN230" t="n">
         <v>167.934836635334</v>
@@ -37045,7 +37045,7 @@
         <v>-54.5863720916411</v>
       </c>
       <c r="AM231" t="n">
-        <v>1026.78308827554</v>
+        <v>1028.47133572554</v>
       </c>
       <c r="AN231" t="n">
         <v>112.766952779827</v>
@@ -37200,7 +37200,7 @@
         <v>-49.1663720916411</v>
       </c>
       <c r="AM232" t="n">
-        <v>514.257794137772</v>
+        <v>515.101917862772</v>
       </c>
       <c r="AN232" t="n">
         <v>56.7926036409802</v>
